--- a/sys_reg.xlsx
+++ b/sys_reg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="9220"/>
+    <workbookView windowWidth="20330" windowHeight="9820"/>
   </bookViews>
   <sheets>
     <sheet name="reglist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <t>owner</t>
   </si>
   <si>
-    <t>rafter_soc</t>
+    <t>czz</t>
   </si>
   <si>
     <t>size</t>
@@ -1251,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
